--- a/example-circle-packing-data.xlsx
+++ b/example-circle-packing-data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabel\Dev\R Shiny\Example graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCE432-D43D-44CD-8447-EE1BBFA9F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA536E-D92A-4CD8-A967-B44FE31FC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{63962B96-08E9-47B4-9DB2-A654FF1085E5}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{63962B96-08E9-47B4-9DB2-A654FF1085E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
     <sheet name="Connections" sheetId="2" r:id="rId2"/>
     <sheet name="Connections (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Connection (3)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -122,9 +123,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t>Entscheidungsfindung</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
@@ -183,13 +181,37 @@
   </si>
   <si>
     <t>Datenbanken</t>
+  </si>
+  <si>
+    <t>Vibrant</t>
+  </si>
+  <si>
+    <t>Webscraping</t>
+  </si>
+  <si>
+    <t>Netzwerk-Datenbank</t>
+  </si>
+  <si>
+    <t>Vergleichender Bericht</t>
+  </si>
+  <si>
+    <t>Barplot</t>
+  </si>
+  <si>
+    <t>Handlungsempfehlung</t>
+  </si>
+  <si>
+    <t>Szenarien-Analyse</t>
+  </si>
+  <si>
+    <t>Modell-Entwicklung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +248,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,12 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EEC9C8-0A7B-40C3-A2A2-94DECA2FD623}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -601,42 +631,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -646,78 +676,83 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -725,35 +760,37 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -761,10 +798,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -772,38 +812,36 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -811,41 +849,131 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F22">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43516489-E466-455F-9D28-3E45F95A6E9F}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,191 +1006,221 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>VLOOKUP(B2,Services!A2:F22,1,TRUE)</f>
-        <v>Dashboard</v>
+        <f>VLOOKUP(B2,Services!A3:F28,1,TRUE)</f>
+        <v>Szenarien-Analyse</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B22">_xlfn.UNIQUE(Services!A2:A22)</f>
-        <v>Datenerhebung</v>
+        <f t="array" ref="B2:B28">_xlfn.UNIQUE(Services!A2:A28)</f>
+        <v>Vibrant</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>VLOOKUP(B3,Services!A3:F23,1,TRUE)</f>
+        <f>VLOOKUP(B3,Services!A4:F29,1,TRUE)</f>
         <v>Datenbereinigung</v>
       </c>
       <c r="B3" t="str">
-        <v>Fragebogen</v>
+        <v>Datenerhebung</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>VLOOKUP(B4,Services!A4:F24,1,TRUE)</f>
+        <f>VLOOKUP(B4,Services!A5:F30,1,TRUE)</f>
         <v>Ergebnisbericht</v>
       </c>
       <c r="B4" t="str">
+        <v>Fragebogen</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f>VLOOKUP(B5,Services!A6:F31,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B5" t="str">
         <v>Fragebogenentwicklung</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>VLOOKUP(B5,Services!A5:F25,1,TRUE)</f>
-        <v>Fragebogenstudie</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Fragebogenstudie</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>VLOOKUP(B6,Services!A6:F26,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
+        <f>VLOOKUP(B6,Services!A7:F32,1,TRUE)</f>
+        <v>Datenbereinigung</v>
       </c>
       <c r="B6" t="str">
-        <v>Scraping</v>
+        <v>Fragebogenstudie</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>VLOOKUP(B7,Services!A7:F27,1,TRUE)</f>
-        <v>Aufbereitung</v>
+        <f>VLOOKUP(B7,Services!A9:F33,1,TRUE)</f>
+        <v>Handlungsempfehlung</v>
       </c>
       <c r="B7" t="str">
-        <v>Aufbereitung</v>
+        <v>Scraping</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>VLOOKUP(B8,Services!A8:F28,1,TRUE)</f>
-        <v>Analyse</v>
+        <f>VLOOKUP(B8,Services!A10:F34,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B8" t="str">
+        <v>Webscraping</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="e">
+        <f>VLOOKUP(B9,Services!A11:F35,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Aufbereitung</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="e">
+        <f>VLOOKUP(B10,Services!A12:F36,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B10" t="str">
         <v>Datenbereinigung</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>VLOOKUP(B9,Services!A9:F29,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Outlier-Analyse</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>VLOOKUP(B10,Services!A10:F30,1,TRUE)</f>
-        <v>Machine Learning</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Verwalten</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>VLOOKUP(B11,Services!A11:F31,1,TRUE)</f>
-        <v>Analyse</v>
+        <f>VLOOKUP(B11,Services!A14:F37,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B11" t="str">
-        <v>Datenbanken</v>
+        <v>Outlier-Analyse</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>VLOOKUP(B12,Services!A12:F32,1,TRUE)</f>
-        <v>Analyse</v>
+        <f>VLOOKUP(B12,Services!A15:F38,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B12" t="str">
-        <v>Analyse</v>
+        <v>Verwalten</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>VLOOKUP(B13,Services!A13:F33,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
+        <f>VLOOKUP(B13,Services!A16:F39,1,TRUE)</f>
+        <v>Dashboard</v>
       </c>
       <c r="B13" t="str">
-        <v>Taxonomie</v>
+        <v>Datenbanken</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>VLOOKUP(B14,Services!A14:F34,1,TRUE)</f>
-        <v>Deskriptive Analyse</v>
+        <f>VLOOKUP(B14,Services!A17:F40,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B14" t="str">
-        <v>Deskriptive Analyse</v>
+        <v>Netzwerk-Datenbank</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>VLOOKUP(B15,Services!A15:F35,1,TRUE)</f>
-        <v>Machine Learning</v>
+      <c r="A15" t="e">
+        <f>VLOOKUP(B15,Services!A19:F41,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="B15" t="str">
-        <v>Visualieren</v>
+        <v>Analyse</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>VLOOKUP(B16,Services!A16:F36,1,TRUE)</f>
-        <v>Dashboard</v>
+        <f>VLOOKUP(B16,Services!A20:F42,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B16" t="str">
-        <v>Diagramme</v>
+        <v>Taxonomie</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>VLOOKUP(B17,Services!A17:F37,1,TRUE)</f>
+        <f>VLOOKUP(B17,Services!A22:F43,1,TRUE)</f>
         <v>Dashboard</v>
       </c>
       <c r="B17" t="str">
-        <v>Dashboard</v>
+        <v>Deskriptive Analyse</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>VLOOKUP(B18,Services!A18:F38,1,TRUE)</f>
-        <v>Ergebnisbericht</v>
+        <f>VLOOKUP(B18,Services!A23:F44,1,TRUE)</f>
+        <v>Szenarien-Analyse</v>
       </c>
       <c r="B18" t="str">
-        <v>Ergebnisbericht</v>
+        <v>Vergleichender Bericht</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>VLOOKUP(B19,Services!A19:F39,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
+        <f>VLOOKUP(B19,Services!A24:F45,1,TRUE)</f>
+        <v>Modell-Entwicklung</v>
       </c>
       <c r="B19" t="str">
+        <v>Visualieren</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="e">
+        <f>VLOOKUP(B20,Services!A25:F46,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Diagramme</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="e">
+        <f>VLOOKUP(B21,Services!A27:F47,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Barplot</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="e">
+        <f>VLOOKUP(B22,Services!A28:F48,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Dashboard</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>Ergebnisbericht</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
         <v>Interpretation</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>VLOOKUP(B20,Services!A20:F40,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Entscheidungsfindung</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>VLOOKUP(B21,Services!A21:F41,1,TRUE)</f>
-        <v>Machine Learning</v>
-      </c>
-      <c r="B21" t="str">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>Handlungsempfehlung</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <v>Szenarien-Analyse</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
         <v>Vorhersagen</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>VLOOKUP(B22,Services!A22:F42,1,TRUE)</f>
-        <v>Machine Learning</v>
-      </c>
-      <c r="B22" t="str">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
         <v>Machine Learning</v>
       </c>
     </row>
@@ -1073,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAE2211-D8AF-4FAC-AEEA-7499D807A433}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,18 +1253,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>VLOOKUP(B2,Services!A$2:F22,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
+        <f>VLOOKUP(B2,Services!A$3:F$28,4,FALSE)</f>
+        <v>Datenerhebung</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B15">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Services!A2:A22,Services!F2:F22&gt;1))</f>
+        <f t="array" ref="B2:B20">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Services!A3:A28,Services!F3:F28&gt;1))</f>
         <v>Fragebogen</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>VLOOKUP(B3,Services!A$2:F23,1,TRUE)</f>
-        <v>Ergebnisbericht</v>
+        <f>VLOOKUP(B3,Services!A$3:F$28,4,FALSE)</f>
+        <v>Fragebogen</v>
       </c>
       <c r="B3" t="str">
         <v>Fragebogenentwicklung</v>
@@ -1114,8 +1272,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>VLOOKUP(B4,Services!A$2:F24,1,TRUE)</f>
-        <v>Datenbereinigung</v>
+        <f>VLOOKUP(B4,Services!A$3:F$28,4,FALSE)</f>
+        <v>Fragebogen</v>
       </c>
       <c r="B4" t="str">
         <v>Fragebogenstudie</v>
@@ -1123,8 +1281,8 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>VLOOKUP(B5,Services!A$2:F25,1,TRUE)</f>
-        <v>Outlier-Analyse</v>
+        <f>VLOOKUP(B5,Services!A$3:F$28,4,FALSE)</f>
+        <v>Datenerhebung</v>
       </c>
       <c r="B5" t="str">
         <v>Scraping</v>
@@ -1132,92 +1290,379 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>VLOOKUP(B6,Services!A$2:F26,1,TRUE)</f>
-        <v>Datenbereinigung</v>
+        <f>VLOOKUP(B6,Services!A$3:F$28,4,FALSE)</f>
+        <v>Scraping</v>
       </c>
       <c r="B6" t="str">
-        <v>Datenbereinigung</v>
+        <v>Webscraping</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>VLOOKUP(B7,Services!A$2:F27,1,TRUE)</f>
-        <v>Entscheidungsfindung</v>
+        <f>VLOOKUP(B7,Services!A$3:F$28,4,FALSE)</f>
+        <v>Aufbereitung</v>
       </c>
       <c r="B7" t="str">
+        <v>Datenbereinigung</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>VLOOKUP(B8,Services!A$3:F$28,4,FALSE)</f>
+        <v>Datenbereinigung</v>
+      </c>
+      <c r="B8" t="str">
         <v>Outlier-Analyse</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="e">
-        <f>VLOOKUP(B8,Services!A$2:F28,1,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Datenbanken</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>VLOOKUP(B9,Services!A$2:F29,1,TRUE)</f>
-        <v>Taxonomie</v>
+        <f>VLOOKUP(B9,Services!A$3:F$28,4,FALSE)</f>
+        <v>Verwalten</v>
       </c>
       <c r="B9" t="str">
-        <v>Taxonomie</v>
+        <v>Datenbanken</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>VLOOKUP(B10,Services!A$2:F30,1,TRUE)</f>
-        <v>Deskriptive Analyse</v>
+        <f>VLOOKUP(B10,Services!A$3:F$28,4,FALSE)</f>
+        <v>Datenbanken</v>
       </c>
       <c r="B10" t="str">
-        <v>Deskriptive Analyse</v>
+        <v>Netzwerk-Datenbank</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>VLOOKUP(B11,Services!A$2:F31,1,TRUE)</f>
-        <v>Diagramme</v>
+        <f>VLOOKUP(B11,Services!A$3:F$28,4,FALSE)</f>
+        <v>Analyse</v>
       </c>
       <c r="B11" t="str">
-        <v>Diagramme</v>
+        <v>Taxonomie</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>VLOOKUP(B12,Services!A$2:F32,1,TRUE)</f>
-        <v>Dashboard</v>
+        <f>VLOOKUP(B12,Services!A$3:F$28,4,FALSE)</f>
+        <v>Analyse</v>
       </c>
       <c r="B12" t="str">
-        <v>Dashboard</v>
+        <v>Deskriptive Analyse</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>VLOOKUP(B13,Services!A$2:F33,1,TRUE)</f>
-        <v>Ergebnisbericht</v>
+        <f>VLOOKUP(B13,Services!A$3:F$28,4,FALSE)</f>
+        <v>Deskriptive Analyse</v>
       </c>
       <c r="B13" t="str">
-        <v>Ergebnisbericht</v>
+        <v>Vergleichender Bericht</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>VLOOKUP(B14,Services!A$2:F34,1,TRUE)</f>
-        <v>Datenerhebung</v>
+        <f>VLOOKUP(B14,Services!A$3:F$28,4,FALSE)</f>
+        <v>Visualieren</v>
       </c>
       <c r="B14" t="str">
-        <v>Entscheidungsfindung</v>
+        <v>Diagramme</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>VLOOKUP(B15,Services!A$2:F35,1,TRUE)</f>
+        <f>VLOOKUP(B15,Services!A$3:F$28,4,FALSE)</f>
+        <v>Diagramme</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Barplot</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>Dashboard</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>Ergebnisbericht</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>Handlungsempfehlung</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>Szenarien-Analyse</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
         <v>Machine Learning</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB0A800-F3A4-421A-ACA5-DE04670E7968}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A27">_xlfn._xlws.FILTER(Services!A2:A28,Services!D2:D28&lt;&gt;"")</f>
+        <v>Datenerhebung</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>Fragebogen</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Services!A$2:F$39,4,FALSE)</f>
+        <v>Datenerhebung</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>Fragebogenentwicklung</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Services!A$2:F$39,4,FALSE)</f>
+        <v>Fragebogen</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>Fragebogenstudie</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Services!A$2:F$39,4,FALSE)</f>
+        <v>Fragebogen</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>Scraping</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Services!A$2:F$39,4,FALSE)</f>
+        <v>Datenerhebung</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>Webscraping</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,Services!A$2:F$39,4,FALSE)</f>
+        <v>Scraping</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>Aufbereitung</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>Datenbereinigung</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,Services!A$2:F$39,4,FALSE)</f>
+        <v>Aufbereitung</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>Outlier-Analyse</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,Services!A$2:F$39,4,FALSE)</f>
+        <v>Datenbereinigung</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>Verwalten</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>Datenbanken</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,Services!A$2:F$39,4,FALSE)</f>
+        <v>Verwalten</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>Netzwerk-Datenbank</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Services!A$2:F$39,4,FALSE)</f>
+        <v>Datenbanken</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>Analyse</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>Taxonomie</v>
+      </c>
       <c r="B15" t="str">
+        <f>VLOOKUP(A15,Services!A$2:F$39,4,FALSE)</f>
+        <v>Analyse</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>Deskriptive Analyse</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,Services!A$2:F$39,4,FALSE)</f>
+        <v>Analyse</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>Vergleichender Bericht</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Services!A$2:F$39,4,FALSE)</f>
+        <v>Deskriptive Analyse</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <v>Visualieren</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <v>Diagramme</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,Services!A$2:F$39,4,FALSE)</f>
+        <v>Visualieren</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <v>Barplot</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Services!A$2:F$39,4,FALSE)</f>
+        <v>Diagramme</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <v>Dashboard</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Services!A$2:F$39,4,FALSE)</f>
+        <v>Visualieren</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>Ergebnisbericht</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,Services!A$2:F$39,4,FALSE)</f>
+        <v>Visualieren</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>Interpretation</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>Handlungsempfehlung</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Services!A$2:F$39,4,FALSE)</f>
+        <v>Interpretation</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>Szenarien-Analyse</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Services!A$2:F$39,4,FALSE)</f>
+        <v>Handlungsempfehlung</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>Vorhersagen</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vibrant</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <v>Machine Learning</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Services!A$2:F$39,4,FALSE)</f>
+        <v>Vorhersagen</v>
       </c>
     </row>
   </sheetData>
